--- a/Assets/StreamingAssets/CurlingArena_data/xlsx/JobDB/JobDB_0.xlsx
+++ b/Assets/StreamingAssets/CurlingArena_data/xlsx/JobDB/JobDB_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\902_j\Desktop\project\컬링\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\all\github\CurlingArena\CurlingArena\Assets\StreamingAssets\CurlingArena_data\xlsx\JobDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3CE498-E3CD-4638-9F2E-BA6FE322B025}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3C187-4FE6-472A-901C-36A51D82E866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2025" windowWidth="23685" windowHeight="12615" xr2:uid="{CAE3146D-0BE0-4442-B63D-BCB8C7337725}"/>
+    <workbookView xWindow="29685" yWindow="795" windowWidth="25425" windowHeight="13830" xr2:uid="{CAE3146D-0BE0-4442-B63D-BCB8C7337725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +78,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,11 +102,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,7 +423,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -442,7 +432,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
